--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
@@ -2547,9 +2547,6 @@
       <c r="D61" t="s">
         <v>143</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
       <c r="F61" t="s">
         <v>236</v>
       </c>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-02</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220502_110110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -712,7 +712,7 @@
     <t>MBC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>먼데이 키즈 컴퍼니, 에버그로우</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1258,7 @@
         <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1287,7 +1284,7 @@
         <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1313,7 +1310,7 @@
         <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1365,7 +1362,7 @@
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1391,7 +1388,7 @@
         <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1443,7 +1440,7 @@
         <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1469,7 +1466,7 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1495,7 +1492,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1521,7 +1518,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1547,7 +1544,7 @@
         <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1599,7 +1596,7 @@
         <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1625,7 +1622,7 @@
         <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1651,7 +1648,7 @@
         <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1677,7 +1674,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1703,7 +1700,7 @@
         <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1729,7 +1726,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1781,7 +1778,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1807,7 +1804,7 @@
         <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1833,7 +1830,7 @@
         <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1859,7 +1856,7 @@
         <v>228</v>
       </c>
       <c r="H27" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1885,7 +1882,7 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1911,7 +1908,7 @@
         <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1937,7 +1934,7 @@
         <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1963,7 +1960,7 @@
         <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1989,7 +1986,7 @@
         <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2015,7 +2012,7 @@
         <v>228</v>
       </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2041,7 +2038,7 @@
         <v>240</v>
       </c>
       <c r="H34" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2067,7 +2064,7 @@
         <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2093,7 +2090,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2145,7 +2142,7 @@
         <v>233</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2171,7 +2168,7 @@
         <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2197,7 +2194,7 @@
         <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2223,7 +2220,7 @@
         <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2249,7 +2246,7 @@
         <v>224</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2301,7 +2298,7 @@
         <v>233</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2353,7 +2350,7 @@
         <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2379,7 +2376,7 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2405,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2431,7 +2428,7 @@
         <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2457,7 +2454,7 @@
         <v>245</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2483,7 +2480,7 @@
         <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2535,7 +2532,7 @@
         <v>226</v>
       </c>
       <c r="H53" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2587,7 +2584,7 @@
         <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2613,7 +2610,7 @@
         <v>248</v>
       </c>
       <c r="H56" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2639,7 +2636,7 @@
         <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2691,7 +2688,7 @@
         <v>233</v>
       </c>
       <c r="H59" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2740,7 +2737,7 @@
         <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2766,7 +2763,7 @@
         <v>233</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2818,7 +2815,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2844,7 +2841,7 @@
         <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2870,7 +2867,7 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2896,7 +2893,7 @@
         <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2948,7 +2945,7 @@
         <v>233</v>
       </c>
       <c r="H69" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2974,7 +2971,7 @@
         <v>232</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3000,7 +2997,7 @@
         <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3023,7 @@
         <v>251</v>
       </c>
       <c r="H72" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3052,7 +3049,7 @@
         <v>252</v>
       </c>
       <c r="H73" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3078,7 +3075,7 @@
         <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3104,7 +3101,7 @@
         <v>253</v>
       </c>
       <c r="H75" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3127,7 @@
         <v>225</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,7 +3153,7 @@
         <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3208,7 +3205,7 @@
         <v>245</v>
       </c>
       <c r="H79" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3234,7 +3231,7 @@
         <v>232</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3312,7 +3309,7 @@
         <v>254</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3338,7 +3335,7 @@
         <v>225</v>
       </c>
       <c r="H84" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3364,7 +3361,7 @@
         <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3416,7 +3413,7 @@
         <v>255</v>
       </c>
       <c r="H87" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3468,7 +3465,7 @@
         <v>256</v>
       </c>
       <c r="H89" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3520,7 +3517,7 @@
         <v>237</v>
       </c>
       <c r="H91" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3546,7 +3543,7 @@
         <v>225</v>
       </c>
       <c r="H92" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3572,7 +3569,7 @@
         <v>257</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3598,7 +3595,7 @@
         <v>232</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3650,7 +3647,7 @@
         <v>258</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3676,7 +3673,7 @@
         <v>232</v>
       </c>
       <c r="H97" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3702,7 +3699,7 @@
         <v>232</v>
       </c>
       <c r="H98" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3728,7 +3725,7 @@
         <v>233</v>
       </c>
       <c r="H99" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3754,7 +3751,7 @@
         <v>259</v>
       </c>
       <c r="H100" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3780,7 +3777,7 @@
         <v>233</v>
       </c>
       <c r="H101" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
